--- a/CASUAL/LA CITY MARKET/BRON, FLORENCIO.xlsx
+++ b/CASUAL/LA CITY MARKET/BRON, FLORENCIO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
   <si>
     <t>PERIOD</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>12/03,08,12/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1256,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1296,7 +1299,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1363,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1423,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1489,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1549,7 +1552,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,7 +1650,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1706,7 +1709,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1771,7 +1774,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1814,7 +1817,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1889,7 +1892,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2078,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,7 +2144,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2202,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +2268,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2324,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2396,7 +2399,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2442,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2505,7 +2508,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,7 +2564,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2657,7 +2660,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K138" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3034,12 +3037,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K137"/>
+  <dimension ref="A2:K138"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3200,7 +3203,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>51.942999999999998</v>
+        <v>54.442999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3210,7 +3213,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>87.5</v>
+        <v>89</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4966,13 +4969,15 @@
         <v>45231</v>
       </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
@@ -4984,13 +4989,15 @@
         <v>45261</v>
       </c>
       <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
@@ -4998,7 +5005,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5014,23 +5023,30 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="20"/>
+      <c r="A97" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="39"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="39">
+        <v>1</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="49">
+        <v>45300</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45323</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5046,7 +5062,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45352</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5062,7 +5080,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45383</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5078,7 +5098,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45413</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5094,7 +5116,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45444</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5110,7 +5134,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45474</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5126,7 +5152,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45505</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -5142,7 +5170,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45536</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -5158,7 +5188,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45566</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -5174,7 +5206,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45597</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -5654,20 +5688,36 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="41"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="43"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="43"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
       <c r="I137" s="9"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="15"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="41"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="43"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5716,7 +5766,7 @@
   </sheetPr>
   <dimension ref="A2:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
       <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
@@ -7699,17 +7749,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/CASUAL/LA CITY MARKET/BRON, FLORENCIO.xlsx
+++ b/CASUAL/LA CITY MARKET/BRON, FLORENCIO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CITY MARKET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CITY MARKET\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719E78DC-30C5-4C16-83E7-78E759EF2738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -255,12 +256,6 @@
     <t>1/18,19/2021</t>
   </si>
   <si>
-    <t>7/9,10/2021</t>
-  </si>
-  <si>
-    <t>FL(4-0-0)</t>
-  </si>
-  <si>
     <t>VL(5-0-0)</t>
   </si>
   <si>
@@ -300,9 +295,6 @@
     <t>A(3-0-0)</t>
   </si>
   <si>
-    <t>7/9,10,13/2022</t>
-  </si>
-  <si>
     <t>UT(0-1-16)</t>
   </si>
   <si>
@@ -322,12 +314,18 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>7/9,10,13/2021</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1256,7 +1254,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1299,7 +1297,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1361,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,7 +1421,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1487,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,7 +1550,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1650,7 +1648,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,7 +1707,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +1772,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1815,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1892,7 +1890,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2078,7 +2076,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2144,7 +2142,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2200,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,7 +2266,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2322,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2399,7 +2397,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2440,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2506,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +2562,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2643,7 +2641,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2660,25 +2658,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K138" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2690,25 +2688,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K101" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K106" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3015,7 +3013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3025,7 +3023,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3033,34 +3031,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K138"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A93" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
+      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3081,7 +3079,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3101,7 +3099,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3121,7 +3119,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3129,7 +3127,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3142,7 +3140,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3159,7 +3157,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3194,7 +3192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3203,7 +3201,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>54.442999999999998</v>
+        <v>60.692999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3213,12 +3211,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -3240,7 +3238,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3260,7 +3258,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3280,7 +3278,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3300,7 +3298,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3320,7 +3318,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3340,7 +3338,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3360,7 +3358,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3380,7 +3378,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3400,7 +3398,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3420,7 +3418,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3440,7 +3438,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3460,7 +3458,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3484,7 +3482,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -3502,7 +3500,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3522,7 +3520,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3542,7 +3540,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3562,7 +3560,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3582,7 +3580,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3602,7 +3600,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3622,7 +3620,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3642,7 +3640,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3662,7 +3660,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3682,7 +3680,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3702,7 +3700,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3722,7 +3720,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3746,7 +3744,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>47</v>
       </c>
@@ -3764,7 +3762,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3784,7 +3782,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3804,7 +3802,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3824,7 +3822,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3844,7 +3842,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3864,7 +3862,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3884,7 +3882,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3904,7 +3902,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3924,7 +3922,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3944,7 +3942,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3964,7 +3962,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3984,7 +3982,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4008,7 +4006,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>48</v>
       </c>
@@ -4026,7 +4024,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4046,7 +4044,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4066,7 +4064,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4086,7 +4084,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4106,7 +4104,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4126,7 +4124,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4146,7 +4144,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4166,7 +4164,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4186,7 +4184,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4206,7 +4204,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4226,7 +4224,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4246,7 +4244,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4270,7 +4268,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>49</v>
       </c>
@@ -4288,7 +4286,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4308,7 +4306,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4328,7 +4326,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4348,19 +4346,15 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
-      <c r="B66" s="20" t="s">
-        <v>84</v>
-      </c>
+      <c r="B66" s="20"/>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="39">
-        <v>1</v>
-      </c>
+      <c r="D66" s="39"/>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
@@ -4370,14 +4364,12 @@
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="49">
-        <v>44654</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="49"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="39">
@@ -4394,19 +4386,15 @@
       <c r="J67" s="11"/>
       <c r="K67" s="49"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
-      <c r="B68" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="B68" s="20"/>
       <c r="C68" s="13">
         <v>1.25</v>
       </c>
-      <c r="D68" s="39">
-        <v>3</v>
-      </c>
+      <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
@@ -4416,14 +4404,12 @@
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="20"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="39">
@@ -4440,19 +4426,15 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44713</v>
       </c>
-      <c r="B70" s="20" t="s">
-        <v>84</v>
-      </c>
+      <c r="B70" s="20"/>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="39">
-        <v>1</v>
-      </c>
+      <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -4462,22 +4444,20 @@
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="49">
-        <v>44738</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="49"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44743</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
       <c r="D71" s="39">
-        <v>3</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
@@ -4488,36 +4468,34 @@
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="39">
-        <v>0.15800000000000003</v>
-      </c>
+      <c r="K71" s="20"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="40">
+        <v>44774</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D72" s="39"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="49"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
@@ -4535,114 +4513,110 @@
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="49">
-        <v>44797</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40">
-        <v>44805</v>
-      </c>
+        <v>44815</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="13">
-        <v>1.25</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C74" s="13"/>
       <c r="D74" s="39">
-        <v>1</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G74" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="49">
-        <v>44815</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+      <c r="K74" s="49"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="40">
+        <v>44835</v>
+      </c>
       <c r="B75" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="39">
-        <v>1</v>
+        <v>8.3000000000000018E-2</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="49">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
+      <c r="K75" s="20"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="40">
+        <v>44866</v>
+      </c>
       <c r="B76" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39">
-        <v>0.13100000000000001</v>
+        <v>3</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="49"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40">
-        <v>44835</v>
-      </c>
+      <c r="K76" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" s="13">
-        <v>1.25</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C77" s="13"/>
       <c r="D77" s="39">
-        <v>8.3000000000000018E-2</v>
+        <v>5.8000000000000017E-2</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C78" s="13">
         <v>1.25</v>
       </c>
-      <c r="D78" s="39">
-        <v>3</v>
-      </c>
+      <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13">
@@ -4652,18 +4626,18 @@
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="49">
+        <v>44913</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="39">
-        <v>5.8000000000000017E-2</v>
+        <v>1</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
@@ -4674,41 +4648,37 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40">
-        <v>44896</v>
-      </c>
+      <c r="K79" s="49">
+        <v>44919</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D80" s="39"/>
+        <v>77</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="39">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G80" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="49">
-        <v>44913</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
-      <c r="B81" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="K80" s="49"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="20"/>
       <c r="C81" s="13"/>
-      <c r="D81" s="39">
-        <v>1</v>
-      </c>
+      <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
@@ -4718,51 +4688,51 @@
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="49">
-        <v>44919</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="39">
-        <v>1.7000000000000001E-2</v>
-      </c>
+      <c r="K81" s="20"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="49"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="48" t="s">
-        <v>55</v>
+      <c r="K82" s="20"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>44958</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>44927</v>
+        <v>44986</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -4778,11 +4748,11 @@
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="49"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>44958</v>
+        <v>45017</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -4800,9 +4770,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -4818,11 +4788,11 @@
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="49"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K86" s="20"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -4838,13 +4808,15 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K87" s="49"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B88" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C88" s="13">
         <v>1.25</v>
       </c>
@@ -4858,11 +4830,13 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K88" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>45078</v>
+        <v>45139</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13">
@@ -4878,15 +4852,13 @@
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="49"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K89" s="20"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>59</v>
-      </c>
+        <v>45170</v>
+      </c>
+      <c r="B90" s="20"/>
       <c r="C90" s="13">
         <v>1.25</v>
       </c>
@@ -4900,13 +4872,11 @@
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K90" s="20"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>45139</v>
+        <v>45200</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13">
@@ -4924,9 +4894,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>45170</v>
+        <v>45231</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13">
@@ -4944,15 +4914,19 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B93" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C93" s="13">
         <v>1.25</v>
       </c>
-      <c r="D93" s="39"/>
+      <c r="D93" s="39">
+        <v>5</v>
+      </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
       <c r="G93" s="13">
@@ -4964,51 +4938,54 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40">
-        <v>45231</v>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="48" t="s">
+        <v>91</v>
       </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C94" s="13"/>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B95" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C95" s="13">
         <v>1.25</v>
       </c>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H95" s="39"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="39">
+        <v>1</v>
+      </c>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" s="20"/>
+      <c r="K95" s="49">
+        <v>45300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
@@ -5017,35 +4994,36 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H96" s="39"/>
+      <c r="H96" s="39">
+        <v>1</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="49">
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>56</v>
-      </c>
+        <v>45352</v>
+      </c>
+      <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="39">
-        <v>1</v>
-      </c>
+      <c r="G97" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="49">
-        <v>45300</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K97" s="20"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5061,9 +5039,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5079,9 +5057,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5097,9 +5075,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5115,9 +5093,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5133,9 +5111,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45474</v>
+        <v>45536</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5151,9 +5129,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5169,9 +5147,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45536</v>
+        <v>45597</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5187,10 +5165,8 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40">
-        <v>45566</v>
-      </c>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -5205,10 +5181,8 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40">
-        <v>45597</v>
-      </c>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -5223,7 +5197,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5239,7 +5213,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5255,7 +5229,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5271,7 +5245,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5287,7 +5261,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5303,7 +5277,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5319,7 +5293,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5335,7 +5309,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5351,7 +5325,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5367,7 +5341,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5383,7 +5357,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5399,7 +5373,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5415,7 +5389,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5431,7 +5405,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5447,7 +5421,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5463,7 +5437,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5479,7 +5453,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5495,7 +5469,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5511,7 +5485,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5527,7 +5501,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5543,7 +5517,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5559,7 +5533,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5575,7 +5549,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5591,7 +5565,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5607,7 +5581,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5623,7 +5597,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5639,7 +5613,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5655,7 +5629,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5671,53 +5645,21 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="39"/>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="39"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="20"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="39"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="20"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="41"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="42"/>
-      <c r="D138" s="43"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H138" s="43"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="15"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5734,10 +5676,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5760,34 +5702,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K101"/>
+  <dimension ref="A2:K106"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A40" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A44" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51:XFD61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5808,7 +5750,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5828,7 +5770,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5848,7 +5790,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5856,7 +5798,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5869,7 +5811,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -5886,7 +5828,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5921,7 +5863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5930,7 +5872,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>158.584</v>
+        <v>151.584</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5940,12 +5882,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>20.75</v>
+        <v>19.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -5967,7 +5909,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43221</v>
       </c>
@@ -5991,7 +5933,7 @@
         <v>43241</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43252</v>
       </c>
@@ -6015,7 +5957,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>51</v>
@@ -6037,7 +5979,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>56</v>
@@ -6059,7 +6001,7 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>51</v>
@@ -6081,7 +6023,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>56</v>
@@ -6103,7 +6045,7 @@
         <v>43386</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43405</v>
       </c>
@@ -6125,7 +6067,7 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43435</v>
       </c>
@@ -6149,7 +6091,7 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
         <v>46</v>
       </c>
@@ -6167,7 +6109,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>43466</v>
       </c>
@@ -6191,7 +6133,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>43525</v>
       </c>
@@ -6215,7 +6157,7 @@
         <v>43535</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>43556</v>
       </c>
@@ -6239,7 +6181,7 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>56</v>
@@ -6261,7 +6203,7 @@
         <v>43605</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>43647</v>
       </c>
@@ -6285,7 +6227,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>56</v>
@@ -6307,7 +6249,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>43678</v>
       </c>
@@ -6331,7 +6273,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>56</v>
@@ -6353,7 +6295,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>43739</v>
       </c>
@@ -6377,7 +6319,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>43770</v>
       </c>
@@ -6401,7 +6343,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>43800</v>
       </c>
@@ -6425,7 +6367,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>47</v>
       </c>
@@ -6443,7 +6385,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <v>43831</v>
       </c>
@@ -6467,7 +6409,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <v>43862</v>
       </c>
@@ -6491,7 +6433,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>44013</v>
       </c>
@@ -6515,7 +6457,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>44044</v>
       </c>
@@ -6539,7 +6481,7 @@
         <v>44068</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>44075</v>
       </c>
@@ -6563,7 +6505,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>44105</v>
       </c>
@@ -6587,7 +6529,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="48" t="s">
         <v>48</v>
       </c>
@@ -6605,7 +6547,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="49"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>44197</v>
       </c>
@@ -6629,7 +6571,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>44256</v>
       </c>
@@ -6651,7 +6593,7 @@
         <v>44263</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>44378</v>
       </c>
@@ -6667,15 +6609,15 @@
         <v/>
       </c>
       <c r="H41" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
       <c r="K41" s="49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="48" t="s">
         <v>49</v>
       </c>
@@ -6693,7 +6635,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44743</v>
       </c>
@@ -6717,7 +6659,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44866</v>
       </c>
@@ -6741,7 +6683,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44896</v>
       </c>
@@ -6763,13 +6705,17 @@
         <v>44913</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="20"/>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="40">
+        <v>44652</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="39"/>
+      <c r="D46" s="39">
+        <v>1</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
       <c r="G46" s="13" t="str">
@@ -6779,40 +6725,44 @@
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="49">
+        <v>44654</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>44986</v>
+        <v>44682</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C47" s="13"/>
-      <c r="D47" s="39"/>
+      <c r="D47" s="39">
+        <v>3</v>
+      </c>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
       <c r="G47" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H47" s="39">
-        <v>1</v>
-      </c>
+      <c r="H47" s="39"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="49">
-        <v>44989</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+      <c r="K47" s="49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="40">
+        <v>44713</v>
+      </c>
       <c r="B48" s="20" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
@@ -6823,43 +6773,43 @@
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K48" s="49">
+        <v>44738</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <v>45078</v>
+        <v>44774</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C49" s="13"/>
-      <c r="D49" s="39"/>
+      <c r="D49" s="39">
+        <v>1</v>
+      </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H49" s="39">
-        <v>1</v>
-      </c>
+      <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
       <c r="K49" s="49">
-        <v>45084</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40">
-        <v>45108</v>
-      </c>
+        <v>44797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="39"/>
+      <c r="D50" s="39">
+        <v>1</v>
+      </c>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13" t="str">
@@ -6869,13 +6819,13 @@
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="40">
-        <v>45139</v>
+      <c r="K50" s="49">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6891,9 +6841,9 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>45170</v>
+        <v>44986</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>56</v>
@@ -6912,35 +6862,35 @@
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
       <c r="K52" s="49">
-        <v>45177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="40">
-        <v>45200</v>
-      </c>
+        <v>44989</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="39"/>
+      <c r="D53" s="39">
+        <v>2</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
       <c r="G53" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H53" s="39">
-        <v>1</v>
-      </c>
+      <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="49">
-        <v>45202</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
+      <c r="K53" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="40">
+        <v>45078</v>
+      </c>
       <c r="B54" s="20" t="s">
         <v>56</v>
       </c>
@@ -6958,20 +6908,18 @@
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
       <c r="K54" s="49">
-        <v>45214</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>45231</v>
+        <v>45108</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C55" s="13"/>
-      <c r="D55" s="39">
-        <v>5</v>
-      </c>
+      <c r="D55" s="39"/>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
       <c r="G55" s="13" t="str">
@@ -6982,18 +6930,16 @@
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
       <c r="K55" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="20" t="s">
-        <v>74</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B56" s="20"/>
       <c r="C56" s="13"/>
-      <c r="D56" s="39">
-        <v>5</v>
-      </c>
+      <c r="D56" s="39"/>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
       <c r="G56" s="13" t="str">
@@ -7003,14 +6949,14 @@
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
+      <c r="K56" s="20"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="40">
+        <v>45170</v>
+      </c>
       <c r="B57" s="20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="39"/>
@@ -7021,18 +6967,20 @@
         <v/>
       </c>
       <c r="H57" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
+      <c r="K57" s="49">
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="40">
+        <v>45200</v>
+      </c>
       <c r="B58" s="20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
@@ -7043,20 +6991,18 @@
         <v/>
       </c>
       <c r="H58" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="40">
-        <v>45261</v>
-      </c>
+      <c r="K58" s="49">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="39"/>
@@ -7067,19 +7013,25 @@
         <v/>
       </c>
       <c r="H59" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="20"/>
+      <c r="K59" s="49">
+        <v>45214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C60" s="13"/>
-      <c r="D60" s="39"/>
+      <c r="D60" s="39">
+        <v>5</v>
+      </c>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
       <c r="G60" s="13" t="str">
@@ -7089,13 +7041,19 @@
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K60" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
-      <c r="B61" s="20"/>
+      <c r="B61" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C61" s="13"/>
-      <c r="D61" s="39"/>
+      <c r="D61" s="39">
+        <v>5</v>
+      </c>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
       <c r="G61" s="13" t="str">
@@ -7105,11 +7063,15 @@
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K61" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
@@ -7118,14 +7080,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H62" s="39"/>
+      <c r="H62" s="39">
+        <v>2</v>
+      </c>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K62" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
-      <c r="B63" s="20"/>
+      <c r="B63" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
@@ -7134,14 +7102,22 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H63" s="39"/>
+      <c r="H63" s="39">
+        <v>2</v>
+      </c>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="20"/>
+      <c r="K63" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
@@ -7150,12 +7126,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H64" s="39"/>
+      <c r="H64" s="39">
+        <v>3</v>
+      </c>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7171,7 +7151,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7187,7 +7167,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7203,7 +7183,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7219,7 +7199,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7235,7 +7215,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7251,7 +7231,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7267,7 +7247,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7283,7 +7263,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7299,7 +7279,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7315,7 +7295,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7331,7 +7311,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7347,7 +7327,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7363,7 +7343,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7379,7 +7359,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7395,7 +7375,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7411,7 +7391,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7427,7 +7407,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7443,7 +7423,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7459,7 +7439,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7475,7 +7455,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7491,7 +7471,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7507,7 +7487,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7523,7 +7503,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7539,7 +7519,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7555,7 +7535,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7571,7 +7551,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7587,7 +7567,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7603,7 +7583,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7619,7 +7599,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7635,7 +7615,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7651,7 +7631,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7667,7 +7647,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7683,7 +7663,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7699,7 +7679,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7715,7 +7695,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7731,41 +7711,121 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="41"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="43"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="39"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H101" s="43"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H101" s="39"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="15"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="20"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H102" s="39"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="20"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H103" s="39"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="20"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H104" s="39"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="20"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="40"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H105" s="39"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="20"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="41"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H106" s="43"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7788,28 +7848,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -7822,7 +7882,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7851,7 +7911,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>172.584</v>
       </c>
@@ -7877,17 +7937,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7908,7 +7968,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7935,7 +7995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7961,7 +8021,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7987,7 +8047,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8013,7 +8073,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8039,7 +8099,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8065,7 +8125,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8091,7 +8151,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8117,7 +8177,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8137,7 +8197,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8157,7 +8217,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8177,7 +8237,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8198,7 +8258,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8219,7 +8279,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8240,7 +8300,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8261,7 +8321,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8282,7 +8342,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8303,7 +8363,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8324,7 +8384,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8345,7 +8405,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8366,7 +8426,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8387,7 +8447,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8408,7 +8468,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8429,7 +8489,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8450,7 +8510,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8471,7 +8531,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8492,7 +8552,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8513,7 +8573,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8534,7 +8594,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8555,7 +8615,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8576,7 +8636,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8597,7 +8657,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8606,7 +8666,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8615,7 +8675,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8624,7 +8684,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8633,7 +8693,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8642,7 +8702,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8651,7 +8711,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8660,7 +8720,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8669,7 +8729,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8678,7 +8738,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8687,7 +8747,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8696,7 +8756,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8705,7 +8765,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8714,7 +8774,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8723,7 +8783,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8732,7 +8792,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8741,7 +8801,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8750,7 +8810,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8759,7 +8819,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8768,7 +8828,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8777,7 +8837,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8786,7 +8846,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8795,7 +8855,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8804,7 +8864,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8813,7 +8873,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8822,7 +8882,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8831,7 +8891,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8840,7 +8900,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8849,7 +8909,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8858,7 +8918,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
